--- a/biology/Botanique/Raphidocelis_subcapitata/Raphidocelis_subcapitata.xlsx
+++ b/biology/Botanique/Raphidocelis_subcapitata/Raphidocelis_subcapitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphidocelis subcapitata[1], anciennement dénommée Selenastrum capricornutum ou Pseudokirchneriella subcapitata, est une espèce de microalgues de la famille des Selenastraceae.
-Les cellules, généralement solitaires, ont une forme de croissant évoquant une faucille. Elles mesurent de 8 à 14 µm de long et de 2 à 3 µm de large. Cette espèce est communément utilisée comme bioindicateur pour évaluer les niveaux de nutriments ou de substances toxiques en eau douce. Elle est en effet sensible à la présence de substances toxiques dont les métaux et est omniprésente d'où son utilisation en écotoxicologie[4],[5]. Elle est plus performante que Chara vulgaris aux faibles concentrations de chlorure de sodium, mais cette dernière lui est préférée en cas de stress salin[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphidocelis subcapitata, anciennement dénommée Selenastrum capricornutum ou Pseudokirchneriella subcapitata, est une espèce de microalgues de la famille des Selenastraceae.
+Les cellules, généralement solitaires, ont une forme de croissant évoquant une faucille. Elles mesurent de 8 à 14 µm de long et de 2 à 3 µm de large. Cette espèce est communément utilisée comme bioindicateur pour évaluer les niveaux de nutriments ou de substances toxiques en eau douce. Elle est en effet sensible à la présence de substances toxiques dont les métaux et est omniprésente d'où son utilisation en écotoxicologie,. Elle est plus performante que Chara vulgaris aux faibles concentrations de chlorure de sodium, mais cette dernière lui est préférée en cas de stress salin.
 </t>
         </is>
       </c>
